--- a/observations/orbit_plans/mtp085/nomad_mtp085_plan.xlsx
+++ b/observations/orbit_plans/mtp085/nomad_mtp085_plan.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iant\Documents\PROGRAMS\nomad_obs\observations\orbit_plans\mtp085\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311EE896-E842-4317-BA4F-142F1526EFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="567">
   <si>
     <t>#orbitType</t>
   </si>
@@ -1709,13 +1715,19 @@
   </si>
   <si>
     <t>2024 OCT 26 11:46:29</t>
+  </si>
+  <si>
+    <t>UVIS OFF</t>
+  </si>
+  <si>
+    <t>irOFF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1752,13 +1764,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1796,7 +1816,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1830,6 +1850,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1864,9 +1885,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2039,14 +2061,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A296" workbookViewId="0">
+      <selection activeCell="B317" sqref="B317"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2087,7 +2114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
@@ -2101,7 +2128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2133,7 +2160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>14</v>
       </c>
@@ -2147,7 +2174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2179,7 +2206,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2196,7 +2223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2228,7 +2255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>14</v>
       </c>
@@ -2242,7 +2269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2274,7 +2301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>14</v>
       </c>
@@ -2288,7 +2315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2320,7 +2347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -2337,7 +2364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -2351,7 +2378,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2368,7 +2395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2391,7 +2418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2405,7 +2432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2437,7 +2464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2469,7 +2496,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>14</v>
       </c>
@@ -2483,7 +2510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -2497,7 +2524,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2529,7 +2556,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -2543,7 +2570,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2575,7 +2602,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2592,7 +2619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>14</v>
       </c>
@@ -2606,7 +2633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>14</v>
       </c>
@@ -2620,7 +2647,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2643,7 +2670,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2675,7 +2702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -2689,7 +2716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2721,7 +2748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -2735,7 +2762,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2752,7 +2779,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2784,7 +2811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2816,7 +2843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14</v>
       </c>
@@ -2830,7 +2857,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2862,7 +2889,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2879,7 +2906,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>14</v>
       </c>
@@ -2893,7 +2920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2925,7 +2952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2945,7 +2972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2956,7 +2983,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2970,7 +2997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3002,7 +3029,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14</v>
       </c>
@@ -3016,7 +3043,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3048,7 +3075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -3065,7 +3092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -3079,7 +3106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3111,7 +3138,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3143,7 +3170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -3157,7 +3184,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -3171,7 +3198,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3194,7 +3221,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14</v>
       </c>
@@ -3208,7 +3235,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14</v>
       </c>
@@ -3222,7 +3249,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3254,7 +3281,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3271,7 +3298,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3303,7 +3330,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3335,7 +3362,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>14</v>
       </c>
@@ -3349,7 +3376,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>14</v>
       </c>
@@ -3363,7 +3390,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3395,7 +3422,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>14</v>
       </c>
@@ -3409,7 +3436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>47</v>
       </c>
@@ -3423,7 +3450,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3455,7 +3482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3478,7 +3505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3495,7 +3522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3527,7 +3554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>14</v>
       </c>
@@ -3541,7 +3568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>14</v>
       </c>
@@ -3555,7 +3582,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3587,7 +3614,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3619,7 +3646,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>47</v>
       </c>
@@ -3633,7 +3660,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>14</v>
       </c>
@@ -3647,7 +3674,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3679,7 +3706,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>14</v>
       </c>
@@ -3693,7 +3720,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3725,7 +3752,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3736,7 +3763,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14</v>
       </c>
@@ -3747,7 +3774,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3776,7 +3803,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -3787,7 +3814,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3819,7 +3846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3836,7 +3863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3868,7 +3895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>14</v>
       </c>
@@ -3882,7 +3909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3914,7 +3941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3925,7 +3952,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>14</v>
       </c>
@@ -3936,7 +3963,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3950,7 +3977,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3973,7 +4000,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4005,7 +4032,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>14</v>
       </c>
@@ -4019,7 +4046,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>47</v>
       </c>
@@ -4033,7 +4060,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1</v>
       </c>
@@ -4056,7 +4083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>3</v>
       </c>
@@ -4073,7 +4100,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4105,7 +4132,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4137,7 +4164,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>14</v>
       </c>
@@ -4151,7 +4178,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>47</v>
       </c>
@@ -4165,7 +4192,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4197,7 +4224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>14</v>
       </c>
@@ -4211,7 +4238,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4243,7 +4270,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4266,7 +4293,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>3</v>
       </c>
@@ -4283,7 +4310,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4315,7 +4342,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>14</v>
       </c>
@@ -4329,7 +4356,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4361,7 +4388,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>14</v>
       </c>
@@ -4375,7 +4402,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4407,7 +4434,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4436,7 +4463,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>47</v>
       </c>
@@ -4450,7 +4477,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>14</v>
       </c>
@@ -4464,7 +4491,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4496,7 +4523,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>14</v>
       </c>
@@ -4510,7 +4537,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4533,7 +4560,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>3</v>
       </c>
@@ -4550,7 +4577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14</v>
       </c>
@@ -4564,7 +4591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1</v>
       </c>
@@ -4596,7 +4623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4631,7 +4658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14</v>
       </c>
@@ -4645,7 +4672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4677,7 +4704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>14</v>
       </c>
@@ -4691,7 +4718,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>14</v>
       </c>
@@ -4705,7 +4732,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4737,7 +4764,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4769,7 +4796,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14</v>
       </c>
@@ -4783,7 +4810,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4815,7 +4842,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>14</v>
       </c>
@@ -4829,7 +4856,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>14</v>
       </c>
@@ -4843,7 +4870,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4875,7 +4902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4907,7 +4934,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3</v>
       </c>
@@ -4924,7 +4951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4956,7 +4983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>14</v>
       </c>
@@ -4967,7 +4994,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>47</v>
       </c>
@@ -4981,7 +5008,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1</v>
       </c>
@@ -5013,7 +5040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>14</v>
       </c>
@@ -5027,7 +5054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1</v>
       </c>
@@ -5059,7 +5086,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1</v>
       </c>
@@ -5091,7 +5118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>14</v>
       </c>
@@ -5105,7 +5132,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5119,7 +5146,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5151,7 +5178,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5165,7 +5192,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1</v>
       </c>
@@ -5197,7 +5224,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>14</v>
       </c>
@@ -5211,7 +5238,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1</v>
       </c>
@@ -5243,7 +5270,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>14</v>
       </c>
@@ -5257,7 +5284,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5289,7 +5316,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>3</v>
       </c>
@@ -5306,7 +5333,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1</v>
       </c>
@@ -5338,7 +5365,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>14</v>
       </c>
@@ -5352,7 +5379,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5375,7 +5402,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5398,7 +5425,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>14</v>
       </c>
@@ -5409,7 +5436,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>14</v>
       </c>
@@ -5420,7 +5447,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5443,7 +5470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>14</v>
       </c>
@@ -5457,7 +5484,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5483,7 +5510,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5506,7 +5533,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>14</v>
       </c>
@@ -5520,7 +5547,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5543,7 +5570,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5557,7 +5584,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5580,7 +5607,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>14</v>
       </c>
@@ -5594,7 +5621,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>14</v>
       </c>
@@ -5608,7 +5635,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5631,7 +5658,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5654,7 +5681,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>14</v>
       </c>
@@ -5668,7 +5695,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5691,7 +5718,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>14</v>
       </c>
@@ -5705,7 +5732,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5731,7 +5758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>14</v>
       </c>
@@ -5745,7 +5772,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>14</v>
       </c>
@@ -5756,7 +5783,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>14</v>
       </c>
@@ -5767,7 +5794,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>14</v>
       </c>
@@ -5781,7 +5808,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1</v>
       </c>
@@ -5804,7 +5831,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1</v>
       </c>
@@ -5827,7 +5854,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>14</v>
       </c>
@@ -5841,7 +5868,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1</v>
       </c>
@@ -5864,7 +5891,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>14</v>
       </c>
@@ -5878,7 +5905,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1</v>
       </c>
@@ -5901,7 +5928,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1</v>
       </c>
@@ -5924,7 +5951,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>3</v>
       </c>
@@ -5941,7 +5968,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1</v>
       </c>
@@ -5961,7 +5988,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>47</v>
       </c>
@@ -5978,7 +6005,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>14</v>
       </c>
@@ -5989,7 +6016,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>14</v>
       </c>
@@ -6000,7 +6027,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1</v>
       </c>
@@ -6023,7 +6050,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6046,7 +6073,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>14</v>
       </c>
@@ -6060,7 +6087,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1</v>
       </c>
@@ -6083,7 +6110,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>3</v>
       </c>
@@ -6100,7 +6127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1</v>
       </c>
@@ -6123,7 +6150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>14</v>
       </c>
@@ -6137,7 +6164,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1</v>
       </c>
@@ -6160,7 +6187,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6183,7 +6210,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>14</v>
       </c>
@@ -6194,7 +6221,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>47</v>
       </c>
@@ -6211,7 +6238,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6234,7 +6261,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>14</v>
       </c>
@@ -6248,7 +6275,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6271,7 +6298,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="201" spans="1:13">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>3</v>
       </c>
@@ -6288,7 +6315,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>14</v>
       </c>
@@ -6302,7 +6329,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1</v>
       </c>
@@ -6325,7 +6352,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1</v>
       </c>
@@ -6348,7 +6375,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>14</v>
       </c>
@@ -6362,7 +6389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1</v>
       </c>
@@ -6385,7 +6412,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>14</v>
       </c>
@@ -6399,7 +6426,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1</v>
       </c>
@@ -6422,7 +6449,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1</v>
       </c>
@@ -6445,7 +6472,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>3</v>
       </c>
@@ -6462,7 +6489,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1</v>
       </c>
@@ -6485,7 +6512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>14</v>
       </c>
@@ -6499,7 +6526,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1</v>
       </c>
@@ -6522,7 +6549,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>14</v>
       </c>
@@ -6536,7 +6563,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1</v>
       </c>
@@ -6559,7 +6586,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>14</v>
       </c>
@@ -6570,7 +6597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>14</v>
       </c>
@@ -6581,7 +6608,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1</v>
       </c>
@@ -6604,7 +6631,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>14</v>
       </c>
@@ -6618,7 +6645,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1</v>
       </c>
@@ -6641,7 +6668,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>14</v>
       </c>
@@ -6655,7 +6682,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1</v>
       </c>
@@ -6681,7 +6708,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1</v>
       </c>
@@ -6704,7 +6731,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>14</v>
       </c>
@@ -6718,7 +6745,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1</v>
       </c>
@@ -6741,7 +6768,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>14</v>
       </c>
@@ -6755,7 +6782,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>14</v>
       </c>
@@ -6769,7 +6796,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1</v>
       </c>
@@ -6792,7 +6819,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="229" spans="1:13">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>3</v>
       </c>
@@ -6809,7 +6836,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1</v>
       </c>
@@ -6832,7 +6859,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="231" spans="1:13">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1</v>
       </c>
@@ -6855,7 +6882,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>3</v>
       </c>
@@ -6872,7 +6899,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:13">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1</v>
       </c>
@@ -6895,7 +6922,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="234" spans="1:13">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>14</v>
       </c>
@@ -6909,7 +6936,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="235" spans="1:13">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1</v>
       </c>
@@ -6932,7 +6959,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1</v>
       </c>
@@ -6955,7 +6982,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>14</v>
       </c>
@@ -6969,7 +6996,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1</v>
       </c>
@@ -6992,7 +7019,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>3</v>
       </c>
@@ -7009,7 +7036,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>14</v>
       </c>
@@ -7023,7 +7050,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1</v>
       </c>
@@ -7046,7 +7073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1</v>
       </c>
@@ -7069,7 +7096,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>3</v>
       </c>
@@ -7086,7 +7113,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1</v>
       </c>
@@ -7109,7 +7136,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="245" spans="1:13">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>14</v>
       </c>
@@ -7123,7 +7150,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>28</v>
       </c>
@@ -7137,7 +7164,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>14</v>
       </c>
@@ -7151,7 +7178,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1</v>
       </c>
@@ -7174,7 +7201,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>14</v>
       </c>
@@ -7188,7 +7215,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="250" spans="1:13">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1</v>
       </c>
@@ -7211,7 +7238,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="251" spans="1:13">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1</v>
       </c>
@@ -7234,7 +7261,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="252" spans="1:13">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>3</v>
       </c>
@@ -7251,7 +7278,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="253" spans="1:13">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1</v>
       </c>
@@ -7274,7 +7301,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>14</v>
       </c>
@@ -7288,7 +7315,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="255" spans="1:13">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1</v>
       </c>
@@ -7311,7 +7338,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="256" spans="1:13">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>14</v>
       </c>
@@ -7325,7 +7352,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1</v>
       </c>
@@ -7345,7 +7372,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>14</v>
       </c>
@@ -7356,7 +7383,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>14</v>
       </c>
@@ -7370,7 +7397,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1</v>
       </c>
@@ -7393,7 +7420,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>14</v>
       </c>
@@ -7407,7 +7434,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1</v>
       </c>
@@ -7430,7 +7457,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>3</v>
       </c>
@@ -7447,7 +7474,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="264" spans="1:13">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>14</v>
       </c>
@@ -7461,7 +7488,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1</v>
       </c>
@@ -7484,7 +7511,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1</v>
       </c>
@@ -7507,7 +7534,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>14</v>
       </c>
@@ -7521,7 +7548,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>28</v>
       </c>
@@ -7535,7 +7562,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>14</v>
       </c>
@@ -7549,7 +7576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1</v>
       </c>
@@ -7572,7 +7599,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>14</v>
       </c>
@@ -7586,7 +7613,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1</v>
       </c>
@@ -7609,7 +7636,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="273" spans="1:13">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1</v>
       </c>
@@ -7632,7 +7659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:13">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>3</v>
       </c>
@@ -7649,7 +7676,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="275" spans="1:13">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>14</v>
       </c>
@@ -7663,7 +7690,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="276" spans="1:13">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>14</v>
       </c>
@@ -7677,7 +7704,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="277" spans="1:13">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1</v>
       </c>
@@ -7700,7 +7727,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="278" spans="1:13">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>14</v>
       </c>
@@ -7714,7 +7741,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="279" spans="1:13">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>28</v>
       </c>
@@ -7728,7 +7755,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="280" spans="1:13">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>14</v>
       </c>
@@ -7742,7 +7769,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="281" spans="1:13">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1</v>
       </c>
@@ -7765,7 +7792,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="282" spans="1:13">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>14</v>
       </c>
@@ -7779,7 +7806,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="283" spans="1:13">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1</v>
       </c>
@@ -7802,7 +7829,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="284" spans="1:13">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1</v>
       </c>
@@ -7825,7 +7852,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="285" spans="1:13">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>14</v>
       </c>
@@ -7839,7 +7866,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="286" spans="1:13">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>3</v>
       </c>
@@ -7856,7 +7883,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="287" spans="1:13">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1</v>
       </c>
@@ -7879,7 +7906,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="288" spans="1:13">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>14</v>
       </c>
@@ -7893,7 +7920,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>14</v>
       </c>
@@ -7907,7 +7934,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>14</v>
       </c>
@@ -7921,7 +7948,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1</v>
       </c>
@@ -7944,7 +7971,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>14</v>
       </c>
@@ -7958,7 +7985,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1</v>
       </c>
@@ -7981,7 +8008,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1</v>
       </c>
@@ -8004,7 +8031,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>3</v>
       </c>
@@ -8021,7 +8048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1</v>
       </c>
@@ -8044,7 +8071,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>28</v>
       </c>
@@ -8058,7 +8085,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>14</v>
       </c>
@@ -8072,7 +8099,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="299" spans="1:13">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>14</v>
       </c>
@@ -8086,7 +8113,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="300" spans="1:13">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>14</v>
       </c>
@@ -8100,7 +8127,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="301" spans="1:13">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>14</v>
       </c>
@@ -8114,7 +8141,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="302" spans="1:13">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1</v>
       </c>
@@ -8137,7 +8164,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="303" spans="1:13">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1</v>
       </c>
@@ -8160,7 +8187,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="304" spans="1:13">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>14</v>
       </c>
@@ -8174,7 +8201,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="305" spans="1:13">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1</v>
       </c>
@@ -8197,7 +8224,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="306" spans="1:13">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>14</v>
       </c>
@@ -8211,7 +8238,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="307" spans="1:13">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1</v>
       </c>
@@ -8234,7 +8261,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="308" spans="1:13">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1</v>
       </c>
@@ -8257,12 +8284,9 @@
         <v>512</v>
       </c>
     </row>
-    <row r="309" spans="1:13">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>14</v>
-      </c>
-      <c r="I309" t="s">
-        <v>8</v>
       </c>
       <c r="L309" t="s">
         <v>517</v>
@@ -8271,21 +8295,18 @@
         <v>512</v>
       </c>
     </row>
-    <row r="310" spans="1:13">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1</v>
       </c>
       <c r="E310" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="F310" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="G310" t="s">
-        <v>6</v>
-      </c>
-      <c r="I310" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L310" t="s">
         <v>518</v>
@@ -8294,12 +8315,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="311" spans="1:13">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>14</v>
-      </c>
-      <c r="I311" t="s">
-        <v>8</v>
       </c>
       <c r="L311" t="s">
         <v>520</v>
@@ -8308,15 +8326,9 @@
         <v>519</v>
       </c>
     </row>
-    <row r="312" spans="1:13">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>3</v>
-      </c>
-      <c r="H312" t="s">
-        <v>447</v>
-      </c>
-      <c r="I312" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L312" t="s">
         <v>521</v>
@@ -8325,12 +8337,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="313" spans="1:13">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>14</v>
-      </c>
-      <c r="I313" t="s">
-        <v>8</v>
       </c>
       <c r="L313" t="s">
         <v>523</v>
@@ -8339,12 +8348,9 @@
         <v>522</v>
       </c>
     </row>
-    <row r="314" spans="1:13">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>14</v>
-      </c>
-      <c r="I314" t="s">
-        <v>8</v>
       </c>
       <c r="L314" t="s">
         <v>524</v>
@@ -8353,21 +8359,18 @@
         <v>525</v>
       </c>
     </row>
-    <row r="315" spans="1:13">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1</v>
       </c>
       <c r="E315" t="s">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="F315" t="s">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="G315" t="s">
-        <v>6</v>
-      </c>
-      <c r="I315" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L315" t="s">
         <v>526</v>
@@ -8376,12 +8379,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="316" spans="1:13">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>14</v>
-      </c>
-      <c r="I316" t="s">
-        <v>8</v>
       </c>
       <c r="L316" t="s">
         <v>527</v>
@@ -8390,21 +8390,18 @@
         <v>525</v>
       </c>
     </row>
-    <row r="317" spans="1:13">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1</v>
       </c>
       <c r="E317" t="s">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="F317" t="s">
-        <v>76</v>
+        <v>566</v>
       </c>
       <c r="G317" t="s">
-        <v>6</v>
-      </c>
-      <c r="I317" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L317" t="s">
         <v>528</v>
@@ -8413,21 +8410,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="1:13">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1</v>
       </c>
       <c r="B318" t="s">
-        <v>126</v>
+        <v>566</v>
       </c>
       <c r="C318" t="s">
-        <v>126</v>
+        <v>566</v>
       </c>
       <c r="D318" t="s">
-        <v>3</v>
-      </c>
-      <c r="I318" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L318" t="s">
         <v>529</v>
@@ -8436,12 +8430,9 @@
         <v>530</v>
       </c>
     </row>
-    <row r="319" spans="1:13">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>14</v>
-      </c>
-      <c r="I319" t="s">
-        <v>8</v>
       </c>
       <c r="L319" t="s">
         <v>531</v>
@@ -8450,21 +8441,18 @@
         <v>532</v>
       </c>
     </row>
-    <row r="320" spans="1:13">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="C320" t="s">
-        <v>52</v>
+        <v>566</v>
       </c>
       <c r="D320" t="s">
-        <v>3</v>
-      </c>
-      <c r="I320" t="s">
-        <v>8</v>
+        <v>565</v>
       </c>
       <c r="L320" t="s">
         <v>533</v>
@@ -8473,12 +8461,9 @@
         <v>532</v>
       </c>
     </row>
-    <row r="321" spans="1:13">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>14</v>
-      </c>
-      <c r="I321" t="s">
-        <v>8</v>
       </c>
       <c r="L321" t="s">
         <v>534</v>
@@ -8487,7 +8472,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="322" spans="1:13">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1</v>
       </c>
@@ -8510,7 +8495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="1:13">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>14</v>
       </c>
@@ -8524,7 +8509,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="324" spans="1:13">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1</v>
       </c>
@@ -8547,7 +8532,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="325" spans="1:13">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1</v>
       </c>
@@ -8570,7 +8555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:13">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>3</v>
       </c>
@@ -8587,7 +8572,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="327" spans="1:13">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1</v>
       </c>
@@ -8610,7 +8595,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="328" spans="1:13">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>14</v>
       </c>
@@ -8624,7 +8609,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="329" spans="1:13">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>14</v>
       </c>
@@ -8638,7 +8623,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="330" spans="1:13">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1</v>
       </c>
@@ -8670,7 +8655,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="331" spans="1:13">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1</v>
       </c>
@@ -8702,7 +8687,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="332" spans="1:13">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>14</v>
       </c>
@@ -8713,7 +8698,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="333" spans="1:13">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>14</v>
       </c>
@@ -8727,7 +8712,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="334" spans="1:13">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>3</v>
       </c>
@@ -8744,7 +8729,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="335" spans="1:13">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1</v>
       </c>
@@ -8776,7 +8761,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="336" spans="1:13">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>14</v>
       </c>
@@ -8790,7 +8775,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="337" spans="1:13">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1</v>
       </c>
@@ -8822,7 +8807,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="338" spans="1:13">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1</v>
       </c>
@@ -8845,7 +8830,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="339" spans="1:13">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>14</v>
       </c>
@@ -8859,7 +8844,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="340" spans="1:13">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>14</v>
       </c>
@@ -8873,7 +8858,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="341" spans="1:13">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1</v>
       </c>
@@ -8905,7 +8890,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="342" spans="1:13">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>14</v>
       </c>
